--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/13_Bartın_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/13_Bartın_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13F8DB84-2F54-431E-BB0B-5D6A3E20DF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5207E71-B114-4945-B144-6C844D881AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{62FB08D6-B857-4980-B91C-B8B5EE9CB96B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{344A1C22-694E-4F57-B0C3-2BC6EE1C8AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -974,14 +974,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{5E12C9F9-55AB-4496-A132-B5882F1083B6}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{01F96A75-F5C9-49B0-A794-AA1D5B60EF07}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{999BA725-00AE-4E4E-8BE6-2B32BB3F1BA6}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{01749693-14A7-4F1E-96E2-E0C24F6758AF}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{1722283E-30AC-4F82-B768-3BF026BB5A35}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{89722B71-68E5-4F24-93C2-BE01D5C30281}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{B15980D3-500A-46D6-9625-7529DDAE5D82}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{9C8E73F6-8D59-4691-9B7A-7DDBA91BBF3D}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C1A31A23-EF2F-4C63-8EB9-45456958372E}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{201CD89C-EF59-4DC8-BAE0-7128354E6594}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{64D8078F-8453-42F7-A20E-093F5DC55B4C}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{F2A3F55C-10E8-458E-9BEC-75FF1D77FB40}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{D995FBD0-DE23-4C01-BE47-69EA8D74F492}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{78D0370A-4A37-4C4C-AB68-2D9DC3B8B314}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{8F643127-8836-4009-9301-C3757E1220F5}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{12FF280C-560B-4469-A3BB-E6AAF114A7F2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1351,7 +1351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8CC878-9087-4180-AA66-53F13EC56341}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044887CB-5544-465F-B2A3-B1732A548731}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2599,7 +2599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC0B9FA-B495-40A5-87B6-3BC1DED056F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3DA3D8-42AB-4925-AE3E-13AF380DF4E1}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3811,7 +3811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363DE410-BD8F-4EB2-8167-06126C8CDE0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642A99C5-83AC-4E8B-A4B5-69FA84F34AA3}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5017,7 +5017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F2D799-5C99-4B47-8F74-73286C509291}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B191EC7-3F23-4668-A2D9-9FACF6554B62}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6203,7 +6203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C913CEF1-3DE0-4815-B5B0-CDE6CDCE4C43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780C3574-6F42-420F-8ACF-F3C9E04BF014}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7450,7 +7450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE50B9F-90F1-4EAD-BB6F-F039196FA1E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159436B3-6A2F-42FD-9128-14BD34A1F4C2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8697,7 +8697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34891D7B-5B60-4F4F-AE9D-2347633650B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDC428D-BF2E-46A4-BDB4-E2767CB1F6AC}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -9945,7 +9945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8F280F-83D8-49C6-8F42-A8B88A8EE6F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D78A510-9738-4724-9E37-F9BDAEDE4B57}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11193,7 +11193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F395F90-8987-4D7D-A12F-D11FC6B77C4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D1E470-8C2D-47D0-B38E-AD34C23C4D63}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -12441,7 +12441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B184E1-7449-487F-8B9B-A2D18162F207}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66FD167-4954-4C12-BADD-31E3AE1390B3}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13677,7 +13677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310949CD-8118-4DEA-ABD0-60A033208DD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A44009-A8B7-4FF0-81B7-00DB2D94D34E}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14909,7 +14909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B730521-842A-44F9-A0F0-A1437974D209}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F44107-264A-42C2-ABDF-0401DB177774}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
